--- a/team_specific_matrix/Coastal Ga._B.xlsx
+++ b/team_specific_matrix/Coastal Ga._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1818181818181818</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C2">
-        <v>0.5454545454545454</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09090909090909091</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1818181818181818</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.125</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.125</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.125</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R6">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="S6">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2222222222222222</v>
+        <v>0.16</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1111111111111111</v>
+        <v>0.12</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1111111111111111</v>
+        <v>0.12</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1111111111111111</v>
+        <v>0.04</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2222222222222222</v>
+        <v>0.16</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="S8">
-        <v>0.2222222222222222</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1111111111111111</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2222222222222222</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2222222222222222</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R9">
-        <v>0.3333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="S9">
-        <v>0.1111111111111111</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,13 +970,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09836065573770492</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01639344262295082</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2131147540983606</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="R10">
-        <v>0.1475409836065574</v>
+        <v>0.139344262295082</v>
       </c>
       <c r="S10">
-        <v>0.3278688524590164</v>
+        <v>0.3360655737704918</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K11">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
-        <v>0.2</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1666666666666667</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="I15">
-        <v>0.1666666666666667</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1666666666666667</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1666666666666667</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="I16">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="J16">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.04761904761904762</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="I17">
-        <v>0.1428571428571428</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J17">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K17">
-        <v>0.04761904761904762</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.09523809523809523</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09523809523809523</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07692307692307693</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="I18">
-        <v>0.2307692307692308</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="J18">
         <v>0.5384615384615384</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1666666666666667</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="I19">
-        <v>0.02777777777777778</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="J19">
-        <v>0.5555555555555556</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="K19">
-        <v>0.02777777777777778</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02777777777777778</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.02777777777777778</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1666666666666667</v>
+        <v>0.1038961038961039</v>
       </c>
     </row>
   </sheetData>
